--- a/Manage/upload_file/更多/早签少量数据.xlsx
+++ b/Manage/upload_file/更多/早签少量数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="6135"/>
+    <workbookView windowWidth="19650" windowHeight="10770"/>
   </bookViews>
   <sheets>
     <sheet name="考勤异常表" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>考勤异常表</t>
   </si>
@@ -55,7 +55,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>19510112</t>
+    <t>19510211</t>
   </si>
   <si>
     <t>胡琼岩</t>
@@ -64,7 +64,7 @@
     <t>公司</t>
   </si>
   <si>
-    <t>2021/3/9</t>
+    <t>2021/8/13</t>
   </si>
   <si>
     <t/>
@@ -73,31 +73,67 @@
     <t>旷工</t>
   </si>
   <si>
-    <t>17211108</t>
-  </si>
-  <si>
-    <t>2021/3/10</t>
-  </si>
-  <si>
-    <t>2021/3/12</t>
-  </si>
-  <si>
-    <t>17211135</t>
+    <t>19510212</t>
+  </si>
+  <si>
+    <t>2021/8/14</t>
+  </si>
+  <si>
+    <t>19510213</t>
+  </si>
+  <si>
+    <t>2021/8/15</t>
+  </si>
+  <si>
+    <t>19510214</t>
   </si>
   <si>
     <t>周濛杰</t>
   </si>
   <si>
-    <t>17211140</t>
+    <t>2021/8/16</t>
+  </si>
+  <si>
+    <t>19510215</t>
+  </si>
+  <si>
+    <t>2021/8/17</t>
+  </si>
+  <si>
+    <t>19510216</t>
+  </si>
+  <si>
+    <t>2021/8/18</t>
+  </si>
+  <si>
+    <t>19510217</t>
   </si>
   <si>
     <t>邹林峰</t>
   </si>
   <si>
-    <t>17240139</t>
+    <t>2021/8/19</t>
+  </si>
+  <si>
+    <t>19510218</t>
+  </si>
+  <si>
+    <t>2021/8/20</t>
+  </si>
+  <si>
+    <t>19510219</t>
   </si>
   <si>
     <t>汪晨旭</t>
+  </si>
+  <si>
+    <t>2021/8/21</t>
+  </si>
+  <si>
+    <t>19510220</t>
+  </si>
+  <si>
+    <t>2021/8/22</t>
   </si>
 </sst>
 </file>
@@ -105,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -166,20 +202,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -201,70 +223,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,22 +293,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,19 +358,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,145 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +583,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -558,24 +603,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +627,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,17 +672,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,46 +685,46 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,100 +736,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2">
@@ -1158,7 +1194,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:H11"/>
+      <selection activeCell="E7" sqref="E7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1295,7 +1331,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -1304,7 +1340,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>16</v>
@@ -1327,16 +1363,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
@@ -1356,16 +1392,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
@@ -1385,16 +1421,16 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
@@ -1414,16 +1450,16 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -1443,16 +1479,16 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
@@ -1472,16 +1508,16 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -1501,16 +1537,16 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>16</v>
